--- a/CSV-Reconcile_Process/Examples/Results Summary.xlsx
+++ b/CSV-Reconcile_Process/Examples/Results Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/CSV-Reconcile_Process/Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCEC7BC2-CFA2-954C-8D06-38AEB545E9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694009BE-CA09-4444-A769-B3D290BD47BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19880" yWindow="8940" windowWidth="18040" windowHeight="10480" xr2:uid="{9F441BA8-D83F-B745-B77C-C4A7D29108DA}"/>
+    <workbookView xWindow="19880" yWindow="9300" windowWidth="18040" windowHeight="10480" xr2:uid="{9F441BA8-D83F-B745-B77C-C4A7D29108DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -56,13 +56,13 @@
     <t>Perfectly Matched Labels</t>
   </si>
   <si>
-    <t>Unmatched Labels but score = 100%</t>
-  </si>
-  <si>
     <t>Original # of proposed SME labels</t>
   </si>
   <si>
-    <t>Unmatched labels and score &lt; 100%</t>
+    <t>Unmatched Labels but scored = 100%</t>
+  </si>
+  <si>
+    <t>Unmatched labels and scored &lt; 100%</t>
   </si>
 </sst>
 </file>
@@ -155,6 +155,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BA16B2-DDD0-EE49-8D20-25D3D5CC3B88}">
   <dimension ref="B6:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C19:C20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,13 +479,13 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>8</v>
@@ -500,10 +504,18 @@
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="2">
+        <v>133</v>
+      </c>
+      <c r="D9" s="2">
+        <v>91</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">

--- a/CSV-Reconcile_Process/Examples/Results Summary.xlsx
+++ b/CSV-Reconcile_Process/Examples/Results Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/CSV-Reconcile_Process/Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694009BE-CA09-4444-A769-B3D290BD47BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4766F2DF-05F8-484B-84CB-C0C67A6BB957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19880" yWindow="9300" windowWidth="18040" windowHeight="10480" xr2:uid="{9F441BA8-D83F-B745-B77C-C4A7D29108DA}"/>
+    <workbookView xWindow="16660" yWindow="8800" windowWidth="21260" windowHeight="10980" xr2:uid="{9F441BA8-D83F-B745-B77C-C4A7D29108DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Results</t>
-  </si>
-  <si>
-    <t>Cotton</t>
-  </si>
-  <si>
-    <t>Biotech</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>ADC</t>
   </si>
@@ -63,6 +54,30 @@
   </si>
   <si>
     <t>Unmatched labels and scored &lt; 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "matched_reconciliation.xlsx"</t>
+  </si>
+  <si>
+    <t>"unmatched_but_100.xlsx"</t>
+  </si>
+  <si>
+    <t>"SME_Label_Not_In_The_NALT.xlsx"</t>
+  </si>
+  <si>
+    <t>RESULTS</t>
+  </si>
+  <si>
+    <t>COTTON</t>
+  </si>
+  <si>
+    <t>BIOTECH</t>
+  </si>
+  <si>
+    <t>Link to Reconciliation folder in repository:</t>
+  </si>
+  <si>
+    <t>Reconciled</t>
   </si>
 </sst>
 </file>
@@ -78,15 +93,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -104,6 +125,65 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -135,11 +215,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,82 +562,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BA16B2-DDD0-EE49-8D20-25D3D5CC3B88}">
-  <dimension ref="B6:F11"/>
+  <dimension ref="B4:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="9">
+        <v>133</v>
+      </c>
+      <c r="D9" s="9">
+        <v>91</v>
+      </c>
+      <c r="E9" s="9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="9">
+        <v>38</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>0</v>
       </c>
+      <c r="C10" s="9">
+        <v>373</v>
+      </c>
+      <c r="D10" s="9">
+        <v>218</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2">
-        <v>133</v>
-      </c>
-      <c r="D9" s="2">
-        <v>91</v>
-      </c>
-      <c r="E9" s="2">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CSV-Reconcile_Process/Examples/Results Summary.xlsx
+++ b/CSV-Reconcile_Process/Examples/Results Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/CSV-Reconcile_Process/Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4766F2DF-05F8-484B-84CB-C0C67A6BB957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9B1139-A63B-794F-9F13-8CEC022BED57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16660" yWindow="8800" windowWidth="21260" windowHeight="10980" xr2:uid="{9F441BA8-D83F-B745-B77C-C4A7D29108DA}"/>
   </bookViews>
@@ -215,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -235,13 +235,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -259,10 +256,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -565,7 +558,7 @@
   <dimension ref="B4:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,7 +608,9 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="8">
+        <v>32</v>
+      </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -630,16 +625,10 @@
       <c r="C9" s="9">
         <v>133</v>
       </c>
-      <c r="D9" s="9">
-        <v>91</v>
-      </c>
-      <c r="E9" s="9">
-        <v>4</v>
-      </c>
-      <c r="F9" s="9">
-        <v>38</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -650,9 +639,7 @@
       <c r="C10" s="9">
         <v>373</v>
       </c>
-      <c r="D10" s="9">
-        <v>218</v>
-      </c>
+      <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="12" t="s">
@@ -663,7 +650,9 @@
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10">
+        <v>144</v>
+      </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>

--- a/CSV-Reconcile_Process/Examples/Results Summary.xlsx
+++ b/CSV-Reconcile_Process/Examples/Results Summary.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/CSV-Reconcile_Process/Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D9B1139-A63B-794F-9F13-8CEC022BED57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AC16BC-FB9B-BB4A-93AA-F544CC59F3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16660" yWindow="8800" windowWidth="21260" windowHeight="10980" xr2:uid="{9F441BA8-D83F-B745-B77C-C4A7D29108DA}"/>
+    <workbookView xWindow="4820" yWindow="5640" windowWidth="31060" windowHeight="12060" xr2:uid="{9F441BA8-D83F-B745-B77C-C4A7D29108DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>ADC</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Perfectly Matched Labels</t>
   </si>
   <si>
-    <t>Original # of proposed SME labels</t>
-  </si>
-  <si>
     <t>Unmatched Labels but scored = 100%</t>
   </si>
   <si>
@@ -78,16 +75,30 @@
   </si>
   <si>
     <t>Reconciled</t>
+  </si>
+  <si>
+    <t>Original # of proposed SME labels (includes duplicates)</t>
+  </si>
+  <si>
+    <t>Original # of proposed SME labels (without duplicates)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -211,11 +222,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -238,11 +268,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -555,112 +591,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BA16B2-DDD0-EE49-8D20-25D3D5CC3B88}">
-  <dimension ref="B4:G11"/>
+  <dimension ref="B4:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
+      <c r="C8" s="12">
+        <v>32</v>
+      </c>
+      <c r="D8" s="8">
+        <f>SUM(E8:G8)</f>
+        <v>32</v>
+      </c>
+      <c r="E8" s="15">
+        <v>20</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>12</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
+    <row r="9" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="13">
+        <v>133</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" ref="D9:D11" si="0">SUM(E9:G9)</f>
+        <v>133</v>
+      </c>
+      <c r="E9" s="15">
+        <v>91</v>
+      </c>
+      <c r="F9" s="9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="9">
+        <v>38</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8">
-        <v>32</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="9">
-        <v>133</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="13">
         <v>373</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="12" t="s">
-        <v>13</v>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>366</v>
+      </c>
+      <c r="E10" s="15">
+        <v>217</v>
+      </c>
+      <c r="F10" s="9">
+        <v>73</v>
+      </c>
+      <c r="G10" s="9">
+        <v>76</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="14">
         <v>144</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="12" t="s">
-        <v>13</v>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="E11" s="16">
+        <v>74</v>
+      </c>
+      <c r="F11" s="10">
+        <v>2</v>
+      </c>
+      <c r="G11" s="10">
+        <v>67</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H8" r:id="rId1" xr:uid="{B60DF423-C0FE-F44C-9703-127482D386F0}"/>
+    <hyperlink ref="H9" r:id="rId2" xr:uid="{17BBE0B0-7C88-974E-9161-C03AF159466A}"/>
+    <hyperlink ref="H11" r:id="rId3" xr:uid="{ED4346FC-5011-6B4D-B2F2-6C45327A91D6}"/>
+    <hyperlink ref="H10" r:id="rId4" xr:uid="{AA635A18-A36F-404D-96E4-597D338C3192}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CSV-Reconcile_Process/Examples/Results Summary.xlsx
+++ b/CSV-Reconcile_Process/Examples/Results Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/USDA HD/NAL/MyGitFolder/Reconciliation_Project/CSV-Reconcile_Process/Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AC16BC-FB9B-BB4A-93AA-F544CC59F3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7146FF5-D7E1-304B-B0A7-36EAFCEF4D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="5640" windowWidth="31060" windowHeight="12060" xr2:uid="{9F441BA8-D83F-B745-B77C-C4A7D29108DA}"/>
+    <workbookView xWindow="3900" yWindow="2660" windowWidth="27760" windowHeight="15920" xr2:uid="{9F441BA8-D83F-B745-B77C-C4A7D29108DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -77,10 +77,10 @@
     <t>Reconciled</t>
   </si>
   <si>
-    <t>Original # of proposed SME labels (includes duplicates)</t>
-  </si>
-  <si>
-    <t>Original # of proposed SME labels (without duplicates)</t>
+    <t>Proposed SME labels (includes duplicates)</t>
+  </si>
+  <si>
+    <t>Proposed SME labels (without duplicates)</t>
   </si>
 </sst>
 </file>
@@ -594,14 +594,15 @@
   <dimension ref="B4:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35.6640625" bestFit="1" customWidth="1"/>
